--- a/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
+++ b/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver.rew/github/oresat-star-tracker/oresat-camera-hardware/star-tracker-card/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver.rew/oresat/oresat-star-tracker/oresat-camera-hardware/star-tracker-card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF255E-3C8D-C147-8F0C-3EDB2A3B4A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1158730-9ACC-E242-B015-9EF717E71ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2560" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
+    <workbookView xWindow="10860" yWindow="460" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1027,19 +1027,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="94.5" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>14</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>21</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>

--- a/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
+++ b/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver.rew/oresat/oresat-star-tracker/oresat-camera-hardware/star-tracker-card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1158730-9ACC-E242-B015-9EF717E71ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD08FDF-1957-C24C-AEB8-FFCF800D012F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
+    <workbookView xWindow="21120" yWindow="2680" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>R41, R48, R71</t>
-  </si>
-  <si>
     <t>100K</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>SC70-6</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>RCLAMP0504FBTCT</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>296-39444-1-ND</t>
   </si>
   <si>
-    <t>C4, C11, C16, C17, C18, C20, C21, C24, C25, C26, C28, C31, C39, C40</t>
-  </si>
-  <si>
     <t>R6, R7, R11, R12, R14, R15, R16, R19, R20, R21, R22, R28, R32, R34, R35, R39, R43, R46, R52, R64, R72</t>
   </si>
   <si>
@@ -660,6 +651,15 @@
   </si>
   <si>
     <t>D1, D7, D8</t>
+  </si>
+  <si>
+    <t>R41, R48, R71, R73, R74, R75</t>
+  </si>
+  <si>
+    <t>C4, C11, C16, C17, C18, C20, C21, C24, C25, C26, C28, C31, C39, C40, C41</t>
+  </si>
+  <si>
+    <t>U1, U18</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1070,25 +1070,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" t="s">
-        <v>132</v>
-      </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1096,22 +1096,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1119,22 +1119,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1142,22 +1142,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
         <v>144</v>
       </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1165,22 +1165,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1188,22 +1188,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
         <v>148</v>
       </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1211,22 +1211,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
         <v>163</v>
       </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
         <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1234,25 +1234,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>171</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
         <v>173</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1260,22 +1260,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
         <v>159</v>
       </c>
-      <c r="C10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
         <v>160</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1283,22 +1283,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
         <v>153</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1306,22 +1306,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
         <v>141</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1329,25 +1329,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
       </c>
       <c r="D13">
         <v>603</v>
       </c>
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1355,25 +1355,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1404,22 +1404,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1427,22 +1427,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" t="s">
         <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1450,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1476,25 +1476,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
         <v>102</v>
-      </c>
-      <c r="G19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1502,25 +1502,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
       <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1528,22 +1528,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>105</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>111</v>
-      </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1574,48 +1574,48 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="s">
         <v>119</v>
-      </c>
-      <c r="G23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
         <v>136</v>
       </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" t="s">
         <v>137</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1623,22 +1623,22 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
         <v>156</v>
       </c>
-      <c r="C25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>158</v>
-      </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1669,22 +1669,22 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
         <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1692,22 +1692,22 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
         <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1715,22 +1715,22 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1738,22 +1738,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1761,16 +1761,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>19</v>
@@ -1781,16 +1781,16 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>51</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1810,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>19</v>
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -1830,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>19</v>
@@ -1841,16 +1841,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>19</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -1870,7 +1870,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>19</v>
@@ -1881,19 +1881,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1901,19 +1901,19 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1921,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>83</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>84</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1950,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -1970,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1990,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -2010,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2030,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2050,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>100</v>
@@ -2070,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -2101,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -2121,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2130,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -2141,16 +2141,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
         <v>26</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>

--- a/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
+++ b/oresat-camera-hardware/star-tracker-card/star-tracker-card-eagle-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver.rew/oresat/oresat-star-tracker/oresat-camera-hardware/star-tracker-card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD08FDF-1957-C24C-AEB8-FFCF800D012F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277632F9-AB73-6E4F-B7A7-9BF31D2B809B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="2680" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
+    <workbookView xWindow="20260" yWindow="2680" windowWidth="30940" windowHeight="16440" xr2:uid="{D8C2B724-F8B5-8341-8BE4-D938CAE2AF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
